--- a/Resources/Material List/BOM.xlsx
+++ b/Resources/Material List/BOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>DHT22</t>
   </si>
@@ -48,6 +48,21 @@
   </si>
   <si>
     <t>Barometer</t>
+  </si>
+  <si>
+    <t>HC-SR501</t>
+  </si>
+  <si>
+    <t>LDR</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>ACS712</t>
+  </si>
+  <si>
+    <t>SRD-05VDC-SL-C</t>
   </si>
 </sst>
 </file>
@@ -402,7 +417,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,6 +437,9 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -432,20 +450,32 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/Material List/BOM.xlsx
+++ b/Resources/Material List/BOM.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Robotics\TickHA\Resources\Material List\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9570"/>
   </bookViews>
   <sheets>
     <sheet name="Sensors" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>DHT22</t>
   </si>
@@ -63,12 +58,15 @@
   </si>
   <si>
     <t>SRD-05VDC-SL-C</t>
+  </si>
+  <si>
+    <t>WindSpeed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -106,6 +104,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -122,10 +188,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="0A0A0A"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FCFCFC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -406,7 +472,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -414,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,6 +544,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
